--- a/試験勉強/ライブラリ/pandas/Excel test.xlsx
+++ b/試験勉強/ライブラリ/pandas/Excel test.xlsx
@@ -118,7 +118,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -426,10 +426,13 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -451,13 +454,13 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1">
-        <v>45796</v>
+        <v>45786</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -466,7 +469,7 @@
       </c>
       <c r="B3">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -480,8 +483,8 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B3:B5" ca="1" si="0">RANDBETWEEN(0,100)</f>
-        <v>97</v>
+        <f t="shared" ref="B4:B5" ca="1" si="0">RANDBETWEEN(0,100)</f>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -496,7 +499,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
